--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -1511,12 +1511,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,357 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+      <c r="D6" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -815,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -876,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1461</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -914,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1461</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -952,26 +708,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1461</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -990,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1028,26 +784,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1066,26 +822,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1094,74 +850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>320017</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安全球收益不动产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +914,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1236,22 +954,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1274,22 +992,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1312,22 +1030,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1350,26 +1068,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1388,26 +1106,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1426,26 +1144,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1464,26 +1182,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1236,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1558,22 +1276,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1596,22 +1314,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1634,22 +1352,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1672,26 +1390,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1710,26 +1428,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1748,26 +1466,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1786,26 +1504,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,7 +1558,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1880,26 +1598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1918,26 +1636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1956,26 +1674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1994,26 +1712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2032,26 +1750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2070,26 +1788,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2098,36 +1816,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>160141</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2141,112 +1897,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.32</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +519,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,31 +644,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -665,31 +682,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -703,31 +720,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -741,27 +758,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -779,27 +796,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -817,31 +834,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -855,31 +872,107 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -954,26 +1047,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -992,26 +1085,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1030,26 +1123,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1068,26 +1161,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1106,26 +1199,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1144,26 +1237,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1275,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1329,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1276,22 +1369,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1314,22 +1407,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1352,22 +1445,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1390,26 +1483,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1428,26 +1521,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1466,26 +1559,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1504,26 +1597,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1532,6 +1625,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
+++ b/数据整理/stocks/其他/EQR-公寓物业权益信托.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -973,328 +1122,6 @@
       </c>
       <c r="H10" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1110</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1110</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1110</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1369,26 +1196,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1407,26 +1234,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1445,26 +1272,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.1110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1483,26 +1310,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1521,26 +1348,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1559,26 +1386,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1597,26 +1424,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1478,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1691,22 +1518,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1729,22 +1556,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1767,22 +1594,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1805,26 +1632,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1843,26 +1670,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1881,26 +1708,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1919,26 +1746,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1947,6 +1774,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +2455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
